--- a/biology/Botanique/Monopole_(viticulture)/Monopole_(viticulture).xlsx
+++ b/biology/Botanique/Monopole_(viticulture)/Monopole_(viticulture).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un monopole est une parcelle de vigne exploitée par un seul propriétaire.
 </t>
@@ -511,10 +523,12 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La parcelle doit être en appellation d'origine contrôlée, ou plus spécifiquement correspondre à une dénomination au sein de celle-ci, tels que le sont les climats. Par exemple, le « Clos de la Fortune » est une parcelle comprise dans l'appellation Bouzeron, et est un monopole du domaine Chanzy. Pour le monopole « Clos de Tart », la parcelle représente elle-même la totalité de l'appellation.
-L'exploitation de cette parcelle doit être faite par un seul domaine viticole, il en a l'exclusivité[1].
+L'exploitation de cette parcelle doit être faite par un seul domaine viticole, il en a l'exclusivité.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Mention sur l'étiquette</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La mention « monopole » sur une étiquette indique que le vin est produit sur une seule parcelle, qui est possédée par un seul propriétaire.
 Pour avoir le droit d'apposer cette mention sur l'étiquette, les raisins doivent être vinifiés et le vin mis en bouteille dans le domaine qui possède la parcelle. 
-Cette mention est interdite dans tout autre cas, et est réglementée en France par deux décrets[2],[3].
+Cette mention est interdite dans tout autre cas, et est réglementée en France par deux décrets,.
 </t>
         </is>
       </c>
@@ -576,21 +592,98 @@
           <t>Crus en monopole</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les monopoles englobant l'intégralité d'une appellation sont peu nombreux, les autres sont des lieux-dits cadastraux, subdivisions d'une appellation[4],[5].
-Appellations en monopole
-France
-Bourgogne
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les monopoles englobant l'intégralité d'une appellation sont peu nombreux, les autres sont des lieux-dits cadastraux, subdivisions d'une appellation,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Monopole_(viticulture)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monopole_(viticulture)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Crus en monopole</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Appellations en monopole</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bourgogne
 Vallée de la Loire
-Coulée de Serrant : 6,87 hectares[8].
+Coulée de Serrant : 6,87 hectares.
 Vallée du Rhône
-Château Grillet : 3,5 hectares.
-Lieux-dits en monopole
-France
-Bourgogne
+Château Grillet : 3,5 hectares.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Monopole_(viticulture)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monopole_(viticulture)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Crus en monopole</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lieux-dits en monopole</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bourgogne
 Vallée du Rhône
-Clos Saint Patrice (Châteauneuf-du-Pape) : 1,8 hectare[14],[15].</t>
+Clos Saint Patrice (Châteauneuf-du-Pape) : 1,8 hectare,.</t>
         </is>
       </c>
     </row>
